--- a/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
@@ -700,50 +700,50 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +782,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +842,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +902,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +962,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1022,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1082,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,7 +1142,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1202,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1322,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1382,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2000,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2012,61 +2012,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
       <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
@@ -2138,30 +2138,30 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="15">
-        <v>1907.79</v>
+        <v>1781.55</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2305,7 +2305,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="23">
         <f>+R6+R7+R8+R9+R10+R4</f>
-        <v>152550.84000000003</v>
+        <v>152424.6</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2429,7 +2429,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6"/>
@@ -2451,64 +2451,69 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="47">
+      <c r="A18" s="52"/>
+      <c r="B18" s="45">
         <f>FINANCIERO!B16</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48">
         <f>FINANCIERO!C16</f>
         <v>170703.18</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="50">
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="48">
         <f>FINANCIERO!D16</f>
         <v>85291</v>
       </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="50">
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="48">
         <f>FINANCIERO!E16</f>
         <v>17290.75</v>
       </c>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
       <c r="R19" s="7">
         <f>SUM(R11:R16)+0.01</f>
-        <v>283284.94000000006</v>
+        <v>283158.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B18:E18"/>
@@ -2517,11 +2522,6 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0006\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\HIPOLITO PERSONAL\IOARR0006-AYRIHUANCA\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C37FD4-B1C4-4A17-B000-C63F4F1B78D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1"/>
+    <workbookView xWindow="15696" yWindow="864" windowWidth="14784" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$22</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,10 +149,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -592,7 +593,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,16 +617,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,25 +635,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,16 +662,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,28 +701,34 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,12 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +783,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +843,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +903,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +963,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1023,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1083,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,7 +1143,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1203,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1263,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1323,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1383,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,14 +1690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1747,12 +1748,12 @@
       <c r="B3" s="14"/>
       <c r="C3" s="15">
         <f>F3</f>
-        <v>1907.79</v>
+        <v>1781.55</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15">
-        <v>1907.79</v>
+        <v>1781.55</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1850,7 +1851,7 @@
       <c r="B10" s="20"/>
       <c r="C10" s="21">
         <f>SUM(C3:C9)</f>
-        <v>118981.51</v>
+        <v>118855.27</v>
       </c>
       <c r="D10" s="21">
         <f>SUM(D3:D9)</f>
@@ -1858,8 +1859,8 @@
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23">
-        <f>+F5+F6+F7+F8+F9+F3</f>
-        <v>152550.84000000003</v>
+        <f>F3+F5+F6+F7+F8+F9</f>
+        <v>152424.60000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1956,7 +1957,7 @@
       </c>
       <c r="C16" s="31">
         <f>SUM(C10:C15)</f>
-        <v>170703.18</v>
+        <v>170576.94</v>
       </c>
       <c r="D16" s="31">
         <f>SUM(D10:D15)</f>
@@ -1978,7 +1979,7 @@
       <c r="E17" s="40"/>
       <c r="F17" s="33">
         <f>SUM(F10:F15)+0.01</f>
-        <v>283284.94000000006</v>
+        <v>283158.70000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1992,14 +1993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -2012,61 +2013,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
       <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
@@ -2142,26 +2143,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2429,7 +2430,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="53" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6"/>
@@ -2451,57 +2452,57 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="45">
+      <c r="A18" s="54"/>
+      <c r="B18" s="47">
         <f>FINANCIERO!B16</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50">
         <f>FINANCIERO!C16</f>
-        <v>170703.18</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="48">
+        <v>170576.94</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="50">
         <f>FINANCIERO!D16</f>
         <v>85291</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="48">
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="50">
         <f>FINANCIERO!E16</f>
         <v>17290.75</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
       <c r="R19" s="7">
         <f>SUM(R11:R16)+0.01</f>
         <v>283158.7</v>
@@ -2509,11 +2510,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B18:E18"/>
@@ -2522,6 +2518,11 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\HIPOLITO PERSONAL\IOARR0006-AYRIHUANCA\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0006\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C37FD4-B1C4-4A17-B000-C63F4F1B78D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15696" yWindow="864" windowWidth="14784" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15696" yWindow="864" windowWidth="14784" windowHeight="16200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$22</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,6 +124,9 @@
     <t>Evacuacion de aguas Pluviales</t>
   </si>
   <si>
+    <t>Evacuacion de Aguas Pluviales</t>
+  </si>
+  <si>
     <r>
       <t>Cronograma de inversión IOARR: “</t>
     </r>
@@ -136,23 +138,20 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA PATIO DE FORMACION Y CEREMONIAS IEP N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
+      <t>OPTIMIZACION MEDIANTE COBERTURA DEL PATIO DE HONOR Y FORMACION DE LA IEP N°54408 AYRIHUANCA, DISTRITO MICAELA BASTIDAS, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
     </r>
   </si>
   <si>
-    <t>Cronograma de inversión IOARR: “OPTIMIZACION MEDIANTE COBERTURA DE LA LOSA PATIO FORMACION Y CEREMONIAS IEP N°IEP N°54408 AYRIHUANCA ,DISTRITO MICAELA BASTIDAS, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
-  </si>
-  <si>
-    <t>Evacuacion de Aguas Pluviales</t>
+    <t>Cronograma de inversión IOARR: “OPTIMIZACION MEDIANTE COBERTURA DEL PATIO DE HONOR Y FORMACION DE LA IEP N°IEP N°54408 AYRIHUANCA ,DISTRITO MICAELA BASTIDAS, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -593,7 +592,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,16 +616,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,25 +634,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,16 +661,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -701,50 +700,50 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,7 +782,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +842,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -903,7 +902,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +962,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1022,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1083,7 +1082,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,7 +1142,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1203,7 +1202,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1262,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1322,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1382,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,14 +1689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1713,7 +1712,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1993,15 +1992,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2013,61 +2012,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="A1" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
       <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
@@ -2143,26 +2142,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2214,7 +2213,7 @@
     </row>
     <row r="8" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2430,7 +2429,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6"/>
@@ -2452,57 +2451,57 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="47">
+      <c r="A18" s="52"/>
+      <c r="B18" s="45">
         <f>FINANCIERO!B16</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48">
         <f>FINANCIERO!C16</f>
         <v>170576.94</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="50">
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="48">
         <f>FINANCIERO!D16</f>
         <v>85291</v>
       </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="50">
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="48">
         <f>FINANCIERO!E16</f>
         <v>17290.75</v>
       </c>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
       <c r="R19" s="7">
         <f>SUM(R11:R16)+0.01</f>
         <v>283158.7</v>
@@ -2510,6 +2509,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B18:E18"/>
@@ -2518,11 +2522,6 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15696" yWindow="864" windowWidth="14784" windowHeight="16200" activeTab="1"/>
+    <workbookView xWindow="15696" yWindow="864" windowWidth="14784" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
     <sheet name="FISICO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -700,6 +700,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,12 +744,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +782,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +842,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +902,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +962,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1022,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1082,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,7 +1142,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1202,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1322,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1382,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,8 +1695,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:F17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1999,8 +1999,8 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2012,61 +2012,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
       <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
@@ -2142,26 +2142,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2429,7 +2429,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="53" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6"/>
@@ -2451,57 +2451,57 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="45">
+      <c r="A18" s="54"/>
+      <c r="B18" s="47">
         <f>FINANCIERO!B16</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50">
         <f>FINANCIERO!C16</f>
         <v>170576.94</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="48">
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="50">
         <f>FINANCIERO!D16</f>
         <v>85291</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="48">
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="50">
         <f>FINANCIERO!E16</f>
         <v>17290.75</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
       <c r="R19" s="7">
         <f>SUM(R11:R16)+0.01</f>
         <v>283158.7</v>
@@ -2509,11 +2509,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B18:E18"/>
@@ -2522,6 +2517,11 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
@@ -700,50 +700,50 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +782,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +842,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +902,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +962,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1022,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1082,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,7 +1142,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1202,7 @@
         <xdr:cNvPr id="9" name="Rectángulo 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1322,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1382,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2012,61 +2012,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
       <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
@@ -2142,26 +2142,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="57"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2429,7 +2429,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6"/>
@@ -2451,57 +2451,57 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="47">
+      <c r="A18" s="52"/>
+      <c r="B18" s="45">
         <f>FINANCIERO!B16</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48">
         <f>FINANCIERO!C16</f>
         <v>170576.94</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="50">
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="48">
         <f>FINANCIERO!D16</f>
         <v>85291</v>
       </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="50">
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="48">
         <f>FINANCIERO!E16</f>
         <v>17290.75</v>
       </c>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
       <c r="R19" s="7">
         <f>SUM(R11:R16)+0.01</f>
         <v>283158.7</v>
@@ -2509,6 +2509,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B18:E18"/>
@@ -2517,11 +2522,6 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Documents\GitHub\IOARR0006\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Desktop\IOARR0006- AYRIHUANCA IMPREMIR\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15696" yWindow="864" windowWidth="14784" windowHeight="16200"/>
+    <workbookView xWindow="15696" yWindow="876" windowWidth="14796" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +842,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -888,13 +888,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>187960</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>96519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -902,7 +902,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +962,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1022,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1082,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,7 +1142,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,74 +1187,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>31664</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>47808</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>148504</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>93528</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectángulo 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2324122" y="2800372"/>
-          <a:ext cx="1642454" cy="45720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="es-PE" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1262,7 +1202,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,13 +1248,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>55880</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>172720</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1322,7 +1262,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1322,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,6 +1332,66 @@
         <a:xfrm>
           <a:off x="2387600" y="1706880"/>
           <a:ext cx="1681480" cy="45720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31664</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>148504</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectángulo 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2401613" y="2043215"/>
+          <a:ext cx="1698959" cy="45720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1695,8 +1695,8 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1771,13 +1771,12 @@
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="15">
-        <f>F5</f>
-        <v>95847.47</v>
+        <v>105356.47</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15">
-        <v>95847.47</v>
+        <v>105356.47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1814,106 +1813,106 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="25">
+        <f>F8/2</f>
+        <v>7732.03</v>
+      </c>
+      <c r="D8" s="25">
+        <f>F8/2</f>
+        <v>7732.03</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="27">
+        <v>15464.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
-        <f>F8</f>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
+        <f>F9</f>
         <v>5124.82</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
         <v>5124.82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15">
-        <f>F9</f>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15">
+        <f>F10</f>
         <v>3500</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18">
+      <c r="D10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18">
         <v>3500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+    <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21">
-        <f>SUM(C3:C9)</f>
-        <v>118855.27</v>
-      </c>
-      <c r="D10" s="21">
-        <f>SUM(D3:D9)</f>
-        <v>33569.33</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23">
-        <f>F3+F5+F6+F7+F8+F9</f>
-        <v>152424.60000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21">
+        <f>SUM(C3:C10)</f>
+        <v>136096.30000000002</v>
+      </c>
+      <c r="D11" s="21">
+        <f>SUM(D3:D10)</f>
+        <v>41301.360000000001</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23">
+        <f>F3+F5+F6+F7+F9+F10+F8</f>
+        <v>177397.66000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25">
-        <f>F11/2</f>
-        <v>31508.89</v>
-      </c>
-      <c r="D11" s="25">
-        <f>F11/2</f>
-        <v>31508.89</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27">
-        <v>63017.78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="25">
         <f>F12/2</f>
-        <v>12480.75</v>
+        <v>31508.89</v>
       </c>
       <c r="D12" s="25">
         <f>F12/2</f>
-        <v>12480.75</v>
-      </c>
-      <c r="E12" s="25"/>
+        <v>31508.89</v>
+      </c>
+      <c r="E12" s="26"/>
       <c r="F12" s="27">
-        <v>24961.5</v>
+        <v>63017.78</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="25">
         <f>F13/2</f>
-        <v>7732.03</v>
+        <v>12480.75</v>
       </c>
       <c r="D13" s="25">
         <f>F13/2</f>
-        <v>7732.03</v>
+        <v>12480.75</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="27">
-        <v>15464.06</v>
+        <v>24961.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1951,19 +1950,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="31">
-        <f>SUM(B10:B15)</f>
+        <f>SUM(B11:B15)</f>
         <v>10000</v>
       </c>
       <c r="C16" s="31">
-        <f>SUM(C10:C15)</f>
-        <v>170576.94</v>
+        <f>SUM(C11:C15)</f>
+        <v>180085.94</v>
       </c>
       <c r="D16" s="31">
-        <f>SUM(D10:D15)</f>
+        <f>SUM(D11:D15)</f>
         <v>85291</v>
       </c>
       <c r="E16" s="31">
-        <f>SUM(E10:E15)</f>
+        <f>SUM(E11:E15)</f>
         <v>17290.75</v>
       </c>
       <c r="F16" s="32"/>
@@ -1977,8 +1976,8 @@
       <c r="D17" s="39"/>
       <c r="E17" s="40"/>
       <c r="F17" s="33">
-        <f>SUM(F10:F15)+0.01</f>
-        <v>283158.70000000007</v>
+        <f>SUM(F11:F15)+0.01</f>
+        <v>292667.70000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +1999,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2011,7 +2010,7 @@
     <col min="19" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>31</v>
       </c>
@@ -2184,7 +2183,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="15">
-        <v>95847.47</v>
+        <v>105356.47</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2260,86 +2259,86 @@
       </c>
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="18">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="27">
+        <v>15464.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="18">
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="23">
-        <f>+R6+R7+R8+R9+R10+R4</f>
-        <v>152424.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="23">
+        <f>+R6+R7+R8+R9+R11+R4+R10</f>
+        <v>177397.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="27">
-        <v>63017.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2348,17 +2347,17 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
       <c r="R13" s="27">
-        <v>24961.5</v>
+        <v>63017.78</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2377,7 +2376,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="27">
-        <v>15464.06</v>
+        <v>24961.5</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2461,7 +2460,7 @@
       <c r="E18" s="47"/>
       <c r="F18" s="48">
         <f>FINANCIERO!C16</f>
-        <v>170576.94</v>
+        <v>180085.94</v>
       </c>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
@@ -2503,8 +2502,8 @@
       <c r="P19" s="56"/>
       <c r="Q19" s="56"/>
       <c r="R19" s="7">
-        <f>SUM(R11:R16)+0.01</f>
-        <v>283158.7</v>
+        <f>SUM(R12:R16)+0.01</f>
+        <v>292667.7</v>
       </c>
     </row>
   </sheetData>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
@@ -1,41 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORFEI 751\Desktop\IOARR0006- AYRIHUANCA IMPREMIR\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0006-AYRIHUANCA\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C373B33-D7DF-4A9B-A545-AA38D3E16E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15696" yWindow="876" windowWidth="14796" windowHeight="16200"/>
+    <workbookView xWindow="1848" yWindow="348" windowWidth="15360" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
     <sheet name="FISICO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$22</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t>Acciones</t>
   </si>
@@ -144,14 +139,21 @@
   <si>
     <t>Cronograma de inversión IOARR: “OPTIMIZACION MEDIANTE COBERTURA DEL PATIO DE HONOR Y FORMACION DE LA IEP N°IEP N°54408 AYRIHUANCA ,DISTRITO MICAELA BASTIDAS, PROVINCIA GRAU, DEPARTAMENTO APURIMAC"</t>
   </si>
+  <si>
+    <t>Subtotal CD (S/.)</t>
+  </si>
+  <si>
+    <t>Sub Total CD + GG+GP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;* #,##0.00_-;\-&quot;S/&quot;* #,##0.00_-;_-&quot;S/&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -223,7 +225,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -592,7 +600,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,16 +624,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,25 +642,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,16 +669,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -700,28 +705,34 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,11 +750,21 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,7 +803,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2742260-4FB0-4BD1-A56E-D03209CE9484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,7 +863,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C5C520-4D43-4187-BE4F-8A3B3FCB2C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,7 +923,7 @@
         <xdr:cNvPr id="4" name="Rectángulo 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C72D1E60-E270-43AC-8301-21B4555AB61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +983,7 @@
         <xdr:cNvPr id="5" name="Rectángulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A870D2-25ED-4293-954C-7048F9CCF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1043,7 @@
         <xdr:cNvPr id="6" name="Rectángulo 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7B9F07-FB99-4E0F-9A3E-215378B31C27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1103,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F04678-4E4D-4BC0-8E41-F3EF451569C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1142,7 +1163,7 @@
         <xdr:cNvPr id="8" name="Rectángulo 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A4B6D6-E318-4382-AE14-6F3381F017FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,7 +1223,7 @@
         <xdr:cNvPr id="12" name="Rectángulo 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A0752-7F91-49D8-9DBB-F5A2443A23F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1283,7 @@
         <xdr:cNvPr id="13" name="Rectángulo 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A715AFA-6C13-4341-84FB-399C8548A7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1343,7 @@
         <xdr:cNvPr id="14" name="Rectángulo 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5254275-8565-458E-8093-DD5719ADD24A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1403,7 @@
         <xdr:cNvPr id="15" name="Rectángulo 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F1151D-D92D-456C-8F60-32A21C0964EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,14 +1710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1711,32 +1732,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1756,14 +1777,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
@@ -1813,176 +1834,204 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="25">
-        <f>F8/2</f>
-        <v>7732.03</v>
-      </c>
-      <c r="D8" s="25">
-        <f>F8/2</f>
-        <v>7732.03</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="27">
-        <v>15464.06</v>
+      <c r="A8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
+        <f>F8</f>
+        <v>5124.82</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
+        <v>5124.82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>15</v>
+      <c r="A9" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
+      <c r="C9" s="15">
         <f>F9</f>
-        <v>5124.82</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
-        <v>5124.82</v>
+        <v>3500</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18">
+        <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15">
-        <f>F10</f>
-        <v>3500</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18">
-        <v>3500</v>
+      <c r="A10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21">
+        <f>SUM(C3:C9)</f>
+        <v>128364.27</v>
+      </c>
+      <c r="D10" s="21">
+        <f>SUM(D3:D9)</f>
+        <v>33569.33</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23">
+        <f>SUM(F5:F9)</f>
+        <v>160152.05000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21">
-        <f>SUM(C3:C10)</f>
-        <v>136096.30000000002</v>
-      </c>
-      <c r="D11" s="21">
-        <f>SUM(D3:D10)</f>
-        <v>41301.360000000001</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23">
-        <f>F3+F5+F6+F7+F9+F10+F8</f>
-        <v>177397.66000000003</v>
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25">
+        <f>F11/2</f>
+        <v>31508.89</v>
+      </c>
+      <c r="D11" s="25">
+        <f>F11/2</f>
+        <v>31508.89</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27">
+        <v>63017.78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="25">
         <f>F12/2</f>
-        <v>31508.89</v>
+        <v>7732.03</v>
       </c>
       <c r="D12" s="25">
         <f>F12/2</f>
-        <v>31508.89</v>
-      </c>
-      <c r="E12" s="26"/>
+        <v>7732.03</v>
+      </c>
+      <c r="E12" s="25"/>
       <c r="F12" s="27">
-        <v>63017.78</v>
+        <v>15464.06</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61">
+        <f>SUM(F10:F12)</f>
+        <v>238633.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="25">
-        <f>F13/2</f>
+      <c r="B14" s="29"/>
+      <c r="C14" s="25">
+        <f>F14/2</f>
         <v>12480.75</v>
       </c>
-      <c r="D13" s="25">
-        <f>F13/2</f>
+      <c r="D14" s="25">
+        <f>F14/2</f>
         <v>12480.75</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="27">
+      <c r="E14" s="25"/>
+      <c r="F14" s="27">
         <v>24961.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="15">
-        <f>F14</f>
-        <v>10000</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="27">
-        <v>10000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="15">
+        <f>F15</f>
+        <v>10000</v>
+      </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="15">
-        <f>F15</f>
+      <c r="E15" s="15"/>
+      <c r="F15" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15">
+        <f>F16</f>
         <v>17290.75</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F16" s="30">
         <v>17290.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+    <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="31">
-        <f>SUM(B11:B15)</f>
+      <c r="B17" s="31">
+        <f>SUM(B10:B16)</f>
         <v>10000</v>
       </c>
-      <c r="C16" s="31">
-        <f>SUM(C11:C15)</f>
+      <c r="C17" s="31">
+        <f>SUM(C10:C16)</f>
         <v>180085.94</v>
       </c>
-      <c r="D16" s="31">
-        <f>SUM(D11:D15)</f>
+      <c r="D17" s="31">
+        <f>SUM(D10:D16)</f>
         <v>85291</v>
       </c>
-      <c r="E16" s="31">
-        <f>SUM(E11:E15)</f>
+      <c r="E17" s="31">
+        <f>SUM(E10:E16)</f>
         <v>17290.75</v>
       </c>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
+      <c r="F17" s="62">
+        <f>SUM(F14:F16)</f>
+        <v>52252.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="33">
-        <f>SUM(F11:F15)+0.01</f>
-        <v>292667.70000000007</v>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="32">
+        <f>+F13+F17</f>
+        <v>290886.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="57">
+        <f>F10+F11</f>
+        <v>223169.83000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="57" t="e">
+        <f>D20-#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1991,14 +2040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -2011,61 +2060,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57" t="s">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
       <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
@@ -2141,26 +2190,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="56"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2428,7 +2477,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6"/>
@@ -2450,57 +2499,57 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="45">
-        <f>FINANCIERO!B16</f>
+      <c r="A18" s="53"/>
+      <c r="B18" s="46">
+        <f>FINANCIERO!B17</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48">
-        <f>FINANCIERO!C16</f>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49">
+        <f>FINANCIERO!C17</f>
         <v>180085.94</v>
       </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="48">
-        <f>FINANCIERO!D16</f>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="49">
+        <f>FINANCIERO!D17</f>
         <v>85291</v>
       </c>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="48">
-        <f>FINANCIERO!E16</f>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="49">
+        <f>FINANCIERO!E17</f>
         <v>17290.75</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
       <c r="R19" s="7">
         <f>SUM(R12:R16)+0.01</f>
         <v>292667.7</v>
@@ -2508,11 +2557,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B18:E18"/>
@@ -2521,6 +2565,11 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0006-AYRIHUANCA\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\HIPOLITO PERSONAL\IOARR0006-AYRIHUANCA\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C373B33-D7DF-4A9B-A545-AA38D3E16E61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A065C37C-F7AF-4F41-A404-3C33C81B4FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="348" windowWidth="15360" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="828" windowWidth="14496" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,9 +151,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;* #,##0.00_-;\-&quot;S/&quot;* #,##0.00_-;_-&quot;S/&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;* #,##0.00_-;\-&quot;S/&quot;* #,##0.00_-;_-&quot;S/&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -600,7 +600,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,16 +624,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,25 +642,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -669,13 +669,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,6 +690,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,66 +718,53 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1716,8 +1716,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1732,14 +1732,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -1878,8 +1878,8 @@
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23">
-        <f>SUM(F5:F9)</f>
-        <v>160152.05000000002</v>
+        <f>F3+F5+F6+F7+F8+F9</f>
+        <v>161933.60000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1919,16 +1919,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61">
-        <f>SUM(F10:F12)</f>
-        <v>238633.89</v>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40">
+        <f>F10+F11+F12</f>
+        <v>240415.44000000003</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1999,35 +1999,29 @@
         <f>SUM(E10:E16)</f>
         <v>17290.75</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="41">
         <f>SUM(F14:F16)</f>
         <v>52252.25</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="32">
-        <f>+F13+F17</f>
-        <v>290886.14</v>
+        <f>+F13+F17+0.01</f>
+        <v>292667.70000000007</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="57">
-        <f>F10+F11</f>
-        <v>223169.83000000002</v>
-      </c>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="57" t="e">
-        <f>D20-#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="D21" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2047,7 +2041,7 @@
   </sheetPr>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
@@ -2060,61 +2054,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43" t="s">
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43" t="s">
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
       <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
@@ -2190,26 +2184,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="59"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2477,7 +2471,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6"/>
@@ -2499,57 +2493,57 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="46">
+      <c r="A18" s="56"/>
+      <c r="B18" s="49">
         <f>FINANCIERO!B17</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52">
         <f>FINANCIERO!C17</f>
         <v>180085.94</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="49">
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="52">
         <f>FINANCIERO!D17</f>
         <v>85291</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="49">
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="52">
         <f>FINANCIERO!E17</f>
         <v>17290.75</v>
       </c>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
       <c r="R18" s="12"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="7">
         <f>SUM(R12:R16)+0.01</f>
         <v>292667.7</v>
@@ -2557,6 +2551,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B18:E18"/>
@@ -2565,11 +2564,6 @@
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\HIPOLITO PERSONAL\IOARR0006-AYRIHUANCA\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A065C37C-F7AF-4F41-A404-3C33C81B4FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20D603-BDB7-439A-8008-EF9162D2E283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="828" windowWidth="14496" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Acciones</t>
   </si>
@@ -584,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -703,6 +703,9 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -718,6 +721,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -757,13 +766,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -909,13 +912,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>187960</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>96519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1089,13 +1092,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1149,13 +1152,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>162560</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1209,13 +1212,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1269,13 +1272,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>55880</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>172720</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1389,13 +1392,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>31664</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>47808</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>148504</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>93528</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1716,8 +1719,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1732,14 +1735,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
@@ -1919,7 +1922,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="38"/>
@@ -2005,13 +2008,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="32">
         <f>+F13+F17+0.01</f>
         <v>292667.70000000007</v>
@@ -2039,10 +2042,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2054,61 +2057,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61" t="s">
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
       <c r="R2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
@@ -2184,26 +2187,26 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="59"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2302,86 +2305,86 @@
       </c>
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="27">
-        <v>15464.06</v>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="18">
+        <v>3500</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="18">
-        <v>3500</v>
+      <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="23">
+        <f>R4+R6+R7+R8+R9+R10</f>
+        <v>161933.60000000003</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="23">
-        <f>+R6+R7+R8+R9+R11+R4+R10</f>
-        <v>177397.66</v>
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="27">
+        <v>63017.78</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -2390,70 +2393,71 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="27">
-        <v>63017.78</v>
+        <v>15464.06</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="26">
+        <f>R11+R12+R13</f>
+        <v>240415.44000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="27">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="27">
         <v>24961.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="27">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2462,108 +2466,132 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="30">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="30">
         <v>17290.75</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="8"/>
-    </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="49">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="52">
         <f>FINANCIERO!B17</f>
         <v>10000</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52">
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55">
         <f>FINANCIERO!C17</f>
         <v>180085.94</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="52">
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="55">
         <f>FINANCIERO!D17</f>
         <v>85291</v>
       </c>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="52">
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="55">
         <f>FINANCIERO!E17</f>
         <v>17290.75</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="7">
-        <f>SUM(R12:R16)+0.01</f>
-        <v>292667.7</v>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="7">
+        <f>R14+R15+R16+R17+0.01</f>
+        <v>292667.70000000007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A5:R5"/>
+    <mergeCell ref="A20:Q20"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
+++ b/9.0 CRONOGRAMA/CRONOGRAMA- AYRIHUANCA - 06.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\HIPOLITO PERSONAL\IOARR0006-AYRIHUANCA\9.0 CRONOGRAMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIO ORFEI\IOARR0006-AYRIHUANCA\9.0 CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F20D603-BDB7-439A-8008-EF9162D2E283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B18E36D-2A91-43D6-A17D-25F55F5FD993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINANCIERO" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINANCIERO!$A$1:$F$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FISICO!$A$1:$R$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,8 +151,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;* #,##0.00_-;\-&quot;S/&quot;* #,##0.00_-;_-&quot;S/&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;* #,##0.00_-;\-&quot;S/&quot;* #,##0.00_-;_-&quot;S/&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_ &quot;S/&quot;\ * #,##0.00_ ;_ &quot;S/&quot;\ * \-#,##0.00_ ;_ &quot;S/&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
@@ -225,7 +225,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,12 +241,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -597,140 +591,113 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,32 +709,65 @@
     <xf numFmtId="165" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1719,8 +1719,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="110" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1735,296 +1735,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14">
         <f>F3</f>
         <v>1781.55</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
         <v>1781.55</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14">
         <v>105356.47</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14">
         <v>105356.47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14">
         <f>F6/2</f>
         <v>17726.25</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f>F6/2</f>
         <v>17726.25</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
         <v>35452.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
         <f>F7</f>
         <v>10718.26</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14">
         <v>10718.26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
         <f>F8</f>
         <v>5124.82</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14">
         <v>5124.82</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14">
         <f>F9</f>
         <v>3500</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18">
+      <c r="D9" s="14"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17">
         <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61">
         <f>SUM(C3:C9)</f>
         <v>128364.27</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="61">
         <f>SUM(D3:D9)</f>
         <v>33569.33</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23">
+      <c r="E10" s="62"/>
+      <c r="F10" s="63">
         <f>F3+F5+F6+F7+F8+F9</f>
         <v>161933.60000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21">
         <f>F11/2</f>
         <v>31508.89</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="21">
         <f>F11/2</f>
         <v>31508.89</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27">
+      <c r="E11" s="22"/>
+      <c r="F11" s="23">
         <v>63017.78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21">
         <f>F12/2</f>
         <v>7732.03</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="21">
         <f>F12/2</f>
         <v>7732.03</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="27">
+      <c r="E12" s="21"/>
+      <c r="F12" s="23">
         <v>15464.06</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35">
         <f>F10+F11+F12</f>
         <v>240415.44000000003</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="21">
         <f>F14/2</f>
         <v>12480.75</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="21">
         <f>F14/2</f>
         <v>12480.75</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="27">
+      <c r="E14" s="21"/>
+      <c r="F14" s="23">
         <v>24961.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <f>F15</f>
         <v>10000</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="27">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="23">
         <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14">
         <f>F16</f>
         <v>17290.75</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="26">
         <v>17290.75</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="27">
         <f>SUM(B10:B16)</f>
         <v>10000</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="27">
         <f>SUM(C10:C16)</f>
         <v>180085.94</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="27">
         <f>SUM(D10:D16)</f>
         <v>85291</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="27">
         <f>SUM(E10:E16)</f>
         <v>17290.75</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="36">
         <f>SUM(F14:F16)</f>
         <v>52252.25</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="32">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58">
         <f>+F13+F17+0.01</f>
         <v>292667.70000000007</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="37"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="37"/>
+      <c r="D21" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2044,8 +2044,8 @@
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView view="pageBreakPreview" zoomScale="118" zoomScaleNormal="110" zoomScaleSheetLayoutView="118" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2057,110 +2057,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="9" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2170,10 +2170,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2182,31 +2182,31 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="15">
+      <c r="R4" s="14">
         <v>1781.55</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="62"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="53"/>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -2216,10 +2216,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2228,7 +2228,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="15">
+      <c r="R6" s="14">
         <v>105356.47</v>
       </c>
     </row>
@@ -2240,19 +2240,19 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <v>35452.5</v>
       </c>
     </row>
@@ -2268,15 +2268,15 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <v>10718.26</v>
       </c>
     </row>
@@ -2292,15 +2292,15 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="15">
+      <c r="R9" s="14">
         <v>5124.82</v>
       </c>
     </row>
@@ -2312,10 +2312,10 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2324,7 +2324,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="18">
+      <c r="R10" s="17">
         <v>3500</v>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="23">
+      <c r="R11" s="19">
         <f>R4+R6+R7+R8+R9+R10</f>
         <v>161933.60000000003</v>
       </c>
@@ -2361,19 +2361,19 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="27">
+      <c r="R12" s="23">
         <v>63017.78</v>
       </c>
     </row>
@@ -2385,43 +2385,43 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="27">
+      <c r="R13" s="23">
         <v>15464.06</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="26">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="22">
         <f>R11+R12+R13</f>
         <v>240415.44000000003</v>
       </c>
@@ -2434,19 +2434,19 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="27">
+      <c r="R15" s="23">
         <v>24961.5</v>
       </c>
     </row>
@@ -2454,10 +2454,10 @@
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2470,7 +2470,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="27">
+      <c r="R16" s="23">
         <v>10000</v>
       </c>
     </row>
@@ -2490,16 +2490,16 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="30">
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="26">
         <v>17290.75</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="2" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="49" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="6"/>
@@ -2518,67 +2518,72 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="8"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="52">
+      <c r="A19" s="50"/>
+      <c r="B19" s="43">
         <f>FINANCIERO!B17</f>
         <v>10000</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46">
         <f>FINANCIERO!C17</f>
         <v>180085.94</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="55">
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="46">
         <f>FINANCIERO!D17</f>
         <v>85291</v>
       </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="55">
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="46">
         <f>FINANCIERO!E17</f>
         <v>17290.75</v>
       </c>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="12"/>
-    </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="7">
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="65">
         <f>R14+R15+R16+R17+0.01</f>
         <v>292667.70000000007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B19:E19"/>
@@ -2587,11 +2592,6 @@
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A5:R5"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
